--- a/biology/Mycologie/Mycogone/Mycogone.xlsx
+++ b/biology/Mycologie/Mycogone/Mycogone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mycogone, est un genre de champignons (Fungi) ascomycètes de la famille des Hypocreaceae. Ses espèces sont des mycoparasites qui provoquent des maladies sur les champignons. Son espèce-type, Mycogone rosea, provoque la maladie de la môle notamment sur les cultures de champignons de Paris (Agaricus bisporus) et les Amanites[1]. 
-Les hyphes de ce genre sont très ramifiés et sont composés de conidiophores courts et latéraux portant des conidies inégalement bicellulaires, la cellule supérieure étant plus grande et couverte d'épines[2].
-Les Mycogones sont les formes anamorphes des Hypomyces, ces derniers étant les formes téléomorphes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mycogone, est un genre de champignons (Fungi) ascomycètes de la famille des Hypocreaceae. Ses espèces sont des mycoparasites qui provoquent des maladies sur les champignons. Son espèce-type, Mycogone rosea, provoque la maladie de la môle notamment sur les cultures de champignons de Paris (Agaricus bisporus) et les Amanites. 
+Les hyphes de ce genre sont très ramifiés et sont composés de conidiophores courts et latéraux portant des conidies inégalement bicellulaires, la cellule supérieure étant plus grande et couverte d'épines.
+Les Mycogones sont les formes anamorphes des Hypomyces, ces derniers étant les formes téléomorphes.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum[3], voici la liste des espèces du genre Mycogone :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum, voici la liste des espèces du genre Mycogone :
 Mycogone calospora
 Mycogone echinulata
 Mycogone jaapii
